--- a/Anexo 4.6/dados.xlsx
+++ b/Anexo 4.6/dados.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mar21\Documents\Trabalho\CGINF\Projetos_R\PLDO\PLDO\Anexo 4.6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{45911D83-4BD8-426F-8EE8-7684A9F7EFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2288109B-DB97-4695-BBF7-49AA9CEA4F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-4245" windowWidth="25440" windowHeight="15390"/>
+    <workbookView xWindow="-25320" yWindow="-4245" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pldo_23_01" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="20">
   <si>
     <t>Ano</t>
   </si>
   <si>
     <t>Grupo</t>
-  </si>
-  <si>
-    <t>DescriÃ§Ã£o</t>
   </si>
   <si>
     <t>Masculino</t>
@@ -52,16 +49,7 @@
     <t>Executivo</t>
   </si>
   <si>
-    <t>RemuneraÃ§Ã£o mÃ©dia (R$)</t>
-  </si>
-  <si>
-    <t>Idade mÃ©dia (anos)</t>
-  </si>
-  <si>
     <t>Aposentados</t>
-  </si>
-  <si>
-    <t>Provento mÃ©dio (R$)</t>
   </si>
   <si>
     <t>Pensionistas</t>
@@ -70,139 +58,7 @@
     <t>Legislativo</t>
   </si>
   <si>
-    <t>JudiciÃ¡rio</t>
-  </si>
-  <si>
-    <t>Idade.média..anos.  X</t>
-  </si>
-  <si>
-    <t>Provento médio (R$)</t>
-  </si>
-  <si>
     <t>Idade média (anos)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantidade </t>
-  </si>
-  <si>
-    <t>MinistÃ©rio PÃºblico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RemuneraÃ§Ã£o mÃ©dia (R$) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Idade mÃ©dia (anos) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provento mÃ©dio (R$) </t>
-  </si>
-  <si>
-    <t>Quantidade 298.810</t>
-  </si>
-  <si>
-    <t>RemuneraÃ§Ã£o mÃ©dia (R$) 9.641,88</t>
-  </si>
-  <si>
-    <t>Idade mÃ©dia (anos) 48,08</t>
-  </si>
-  <si>
-    <t>Quantidade 205.221</t>
-  </si>
-  <si>
-    <t>Provento mÃ©dio (R$) 10.050,09</t>
-  </si>
-  <si>
-    <t>Idade mÃ©dia (anos) 72,92</t>
-  </si>
-  <si>
-    <t>Quantidade 26.925</t>
-  </si>
-  <si>
-    <t>Provento mÃ©dio (R$) 5.766,65</t>
-  </si>
-  <si>
-    <t>Idade mÃ©dia (anos) 59,84</t>
-  </si>
-  <si>
-    <t>Quantidade 4.705</t>
-  </si>
-  <si>
-    <t>RemuneraÃ§Ã£o mÃ©dia (R$) 22.794,75</t>
-  </si>
-  <si>
-    <t>Idade mÃ©dia (anos) 48,49</t>
-  </si>
-  <si>
-    <t>Quantidade 4.590</t>
-  </si>
-  <si>
-    <t>Provento mÃ©dio (R$) 33.072,62</t>
-  </si>
-  <si>
-    <t>Idade mÃ©dia (anos) 70,99</t>
-  </si>
-  <si>
-    <t>Quantidade 433</t>
-  </si>
-  <si>
-    <t>Provento mÃ©dio (R$) 21.871,53</t>
-  </si>
-  <si>
-    <t>Idade mÃ©dia (anos) 52,80</t>
-  </si>
-  <si>
-    <t>Quantidade 51.037</t>
-  </si>
-  <si>
-    <t>RemuneraÃ§Ã£o mÃ©dia (R$) 13.496,10</t>
-  </si>
-  <si>
-    <t>Idade mÃ©dia (anos) 46,76</t>
-  </si>
-  <si>
-    <t>Quantidade 12.112</t>
-  </si>
-  <si>
-    <t>Provento mÃ©dio (R$) 20.527,33</t>
-  </si>
-  <si>
-    <t>Idade mÃ©dia (anos) 70,32</t>
-  </si>
-  <si>
-    <t>Quantidade 1.869</t>
-  </si>
-  <si>
-    <t>Provento mÃ©dio (R$) 14.379,79</t>
-  </si>
-  <si>
-    <t>Idade mÃ©dia (anos) 56,99</t>
-  </si>
-  <si>
-    <t>Quantidade 10.254</t>
-  </si>
-  <si>
-    <t>RemuneraÃ§Ã£o mÃ©dia (R$) 14.287,91</t>
-  </si>
-  <si>
-    <t>Idade mÃ©dia (anos) 45,50</t>
-  </si>
-  <si>
-    <t>Quantidade 1.023</t>
-  </si>
-  <si>
-    <t>Provento mÃ©dio (R$) 21.788,02</t>
-  </si>
-  <si>
-    <t>Quantidade 150</t>
-  </si>
-  <si>
-    <t>Provento mÃ©dio (R$) 13.928,48</t>
-  </si>
-  <si>
-    <t>Idade mÃ©dia (anos) 52,55</t>
-  </si>
-  <si>
-    <t>Provento.mÃ©dio..R..</t>
   </si>
   <si>
     <t>9.690.99</t>
@@ -214,253 +70,22 @@
     <t>9.239.81</t>
   </si>
   <si>
-    <t>Quantidade 4.840</t>
-  </si>
-  <si>
-    <t>RemuneraÃ§Ã£o mÃ©dia (R$) 23.032,89</t>
-  </si>
-  <si>
-    <t>Idade mÃ©dia (anos) 47,86</t>
-  </si>
-  <si>
-    <t>Quantidade 4.148</t>
-  </si>
-  <si>
-    <t>Provento mÃ©dio (R$) 33.112,73</t>
-  </si>
-  <si>
-    <t>Idade mÃ©dia (anos) 70,27</t>
-  </si>
-  <si>
-    <t>Quantidade 440</t>
-  </si>
-  <si>
-    <t>Provento mÃ©dio (R$) 22.701,80</t>
-  </si>
-  <si>
-    <t>Idade mÃ©dia (anos) 61,16</t>
-  </si>
-  <si>
-    <t>Quantidade 48.770</t>
-  </si>
-  <si>
-    <t>RemuneraÃ§Ã£o mÃ©dia (R$) 13.483,78</t>
-  </si>
-  <si>
-    <t>Idade mÃ©dia (anos) 54,68</t>
-  </si>
-  <si>
-    <t>Quantidade 10.101</t>
-  </si>
-  <si>
-    <t>Provento mÃ©dio (R$) 20.134,03</t>
-  </si>
-  <si>
-    <t>Idade mÃ©dia (anos) 70,23</t>
-  </si>
-  <si>
-    <t>Quantidade 1.290</t>
-  </si>
-  <si>
-    <t>Provento mÃ©dio (R$) 15.921,58</t>
-  </si>
-  <si>
-    <t>Idade mÃ©dia (anos) 60,12</t>
-  </si>
-  <si>
-    <t>Quantidade 10.434</t>
-  </si>
-  <si>
-    <t>RemuneraÃ§Ã£o mÃ©dia (R$) 14.095,94</t>
-  </si>
-  <si>
-    <t>Idade mÃ©dia (anos) 44,49</t>
-  </si>
-  <si>
-    <t>Quantidade 1.011</t>
-  </si>
-  <si>
-    <t>Provento mÃ©dio (R$) 21.894,77</t>
-  </si>
-  <si>
-    <t>Idade mÃ©dia (anos) 70,06</t>
-  </si>
-  <si>
-    <t>Quantidade 154</t>
-  </si>
-  <si>
-    <t>Provento mÃ©dio (R$) 14.439,47</t>
-  </si>
-  <si>
-    <t>Idade mÃ©dia (anos) 62,44</t>
-  </si>
-  <si>
-    <t>Quantidade 302.879</t>
-  </si>
-  <si>
-    <t>RemuneraÃ§Ã£o mÃ©dia (R$) 10.271,76</t>
-  </si>
-  <si>
-    <t>Quantidade 193.713</t>
-  </si>
-  <si>
-    <t>Provento mÃ©dio (R$) 9.592,75</t>
-  </si>
-  <si>
-    <t>Idade mÃ©dia (anos) 73,63</t>
-  </si>
-  <si>
-    <t>Quantidade 26.658</t>
-  </si>
-  <si>
-    <t>Provento mÃ©dio (R$) 5.345,60</t>
-  </si>
-  <si>
-    <t>Idade mÃ©dia (anos) 56,76</t>
-  </si>
-  <si>
-    <t>Quantidade 7.266</t>
-  </si>
-  <si>
-    <t>RemuneraÃ§Ã£o mÃ©dia (R$) 21.468,99</t>
-  </si>
-  <si>
-    <t>Idade mÃ©dia (anos) 46,65</t>
-  </si>
-  <si>
-    <t>Quantidade 4.530</t>
-  </si>
-  <si>
-    <t>Provento mÃ©dio (R$) 29.554,06</t>
-  </si>
-  <si>
-    <t>Idade mÃ©dia (anos) 70,82</t>
-  </si>
-  <si>
-    <t>Quantidade 442</t>
-  </si>
-  <si>
-    <t>Provento mÃ©dio (R$) 15.101,82</t>
-  </si>
-  <si>
-    <t>Idade mÃ©dia (anos) 50,46</t>
-  </si>
-  <si>
     <t>Remuneração média (R$)</t>
   </si>
   <si>
-    <t>Quantidade 318.688 259.881</t>
+    <t>Ministério Público</t>
   </si>
   <si>
-    <t>RemuneraÃ§Ã£o mÃ©dia (R$) 8.563,46 7.604,07</t>
+    <t>Judiciário</t>
   </si>
   <si>
-    <t>Idade mÃ©dia (anos) 47,38 45,94</t>
-  </si>
-  <si>
-    <t>Quantidade 188.446 201.750</t>
-  </si>
-  <si>
-    <t>Provento mÃ©dio (R$) 7.973,39 6.905,01</t>
-  </si>
-  <si>
-    <t>Idade mÃ©dia (anos) 73,54 70,74</t>
-  </si>
-  <si>
-    <t>Quantidade 26.675 262.104</t>
-  </si>
-  <si>
-    <t>Provento mÃ©dio (R$) 4.584,23 4.640,13</t>
-  </si>
-  <si>
-    <t>Idade mÃ©dia (anos) 54,26 68,88</t>
-  </si>
-  <si>
-    <t>Quantidade 5.467 2.979</t>
-  </si>
-  <si>
-    <t>RemuneraÃ§Ã£o mÃ©dia (R$) 15.939,13 17.202,02</t>
-  </si>
-  <si>
-    <t>Idade mÃ©dia (anos) 46,93 47,03</t>
-  </si>
-  <si>
-    <t>Quantidade 4.222 3.608</t>
-  </si>
-  <si>
-    <t>Provento mÃ©dio (R$) 24.384,90 25.259,04</t>
-  </si>
-  <si>
-    <t>Idade mÃ©dia (anos) 70,47 68,29</t>
-  </si>
-  <si>
-    <t>Quantidade 419 2.562</t>
-  </si>
-  <si>
-    <t>Provento mÃ©dio (R$) 18.434,03 20.577,61</t>
-  </si>
-  <si>
-    <t>Idade mÃ©dia (anos) 47,19 63,33</t>
-  </si>
-  <si>
-    <t>Quantidade 55.708 56.356</t>
-  </si>
-  <si>
-    <t>RemuneraÃ§Ã£o mÃ©dia (R$) 11.499,44 11.506,44</t>
-  </si>
-  <si>
-    <t>Idade mÃ©dia (anos) 44,74 44,30</t>
-  </si>
-  <si>
-    <t>Quantidade 8.728 13.855</t>
-  </si>
-  <si>
-    <t>Provento mÃ©dio (R$) 15.048,23 14.921,65</t>
-  </si>
-  <si>
-    <t>Idade mÃ©dia (anos) 67,77 65,08</t>
-  </si>
-  <si>
-    <t>Quantidade 1.506 6.306</t>
-  </si>
-  <si>
-    <t>Provento mÃ©dio (R$) 13.088,75 13.976,67</t>
-  </si>
-  <si>
-    <t>Idade mÃ©dia (anos) 51,45 66,03</t>
-  </si>
-  <si>
-    <t>Quantidade 10.989 8.074</t>
-  </si>
-  <si>
-    <t>RemuneraÃ§Ã£o mÃ©dia (R$) 12.454,74 11.940,11</t>
-  </si>
-  <si>
-    <t>Idade mÃ©dia (anos) 41,97 40,81</t>
-  </si>
-  <si>
-    <t>Quantidade 823 1.152</t>
-  </si>
-  <si>
-    <t>Provento mÃ©dio (R$) 14.859,06 9.641,55</t>
-  </si>
-  <si>
-    <t>Idade mÃ©dia (anos) 69,85 66,35</t>
-  </si>
-  <si>
-    <t>Quantidade 399 415</t>
-  </si>
-  <si>
-    <t>Provento mÃ©dio (R$) 13.054,60 14.773,19</t>
-  </si>
-  <si>
-    <t>Idade mÃ©dia (anos) 58,69 67,15</t>
+    <t>Descrição</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1295,15 +920,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I298" sqref="I298"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="46.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1315,19 +941,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1335,10 +961,10 @@
         <v>2023</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1">
         <v>299037</v>
@@ -1350,7 +976,7 @@
         <v>536162</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1358,10 +984,10 @@
         <v>2023</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1">
         <v>10942.21</v>
@@ -1373,7 +999,7 @@
         <v>10350.36</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1381,10 +1007,10 @@
         <v>2023</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1">
         <v>48.73</v>
@@ -1396,7 +1022,7 @@
         <v>47.95</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1404,10 +1030,10 @@
         <v>2023</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1">
         <v>199950</v>
@@ -1419,7 +1045,7 @@
         <v>429043</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1427,10 +1053,10 @@
         <v>2023</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1">
         <v>10297.57</v>
@@ -1442,7 +1068,7 @@
         <v>9442.9699999999993</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1450,10 +1076,10 @@
         <v>2023</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1">
         <v>73.88</v>
@@ -1465,7 +1091,7 @@
         <v>72.86</v>
       </c>
       <c r="G7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1473,10 +1099,10 @@
         <v>2023</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1">
         <v>27063</v>
@@ -1488,7 +1114,7 @@
         <v>288892</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1496,10 +1122,10 @@
         <v>2023</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1">
         <v>5734.25</v>
@@ -1511,7 +1137,7 @@
         <v>5657.73</v>
       </c>
       <c r="G9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1519,10 +1145,10 @@
         <v>2023</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="1">
         <v>59.08</v>
@@ -1534,7 +1160,7 @@
         <v>70.08</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1542,10 +1168,10 @@
         <v>2023</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1">
         <v>4663</v>
@@ -1557,7 +1183,7 @@
         <v>6900</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1565,10 +1191,10 @@
         <v>2023</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1">
         <v>22416.02</v>
@@ -1580,7 +1206,7 @@
         <v>22120.799999999999</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1588,10 +1214,10 @@
         <v>2023</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1">
         <v>49.31</v>
@@ -1603,7 +1229,7 @@
         <v>48.96</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1611,10 +1237,10 @@
         <v>2023</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" s="1">
         <v>4520</v>
@@ -1626,7 +1252,7 @@
         <v>8659</v>
       </c>
       <c r="G14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1634,10 +1260,10 @@
         <v>2023</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D15" s="1">
         <v>32978.47</v>
@@ -1649,7 +1275,7 @@
         <v>32811.17</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1657,10 +1283,10 @@
         <v>2023</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" s="1">
         <v>71.239999999999995</v>
@@ -1672,7 +1298,7 @@
         <v>70.430000000000007</v>
       </c>
       <c r="G16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1680,10 +1306,10 @@
         <v>2023</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" s="1">
         <v>448</v>
@@ -1695,7 +1321,7 @@
         <v>3666</v>
       </c>
       <c r="G17" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1703,10 +1329,10 @@
         <v>2023</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D18" s="1">
         <v>18755.53</v>
@@ -1718,7 +1344,7 @@
         <v>20290.45</v>
       </c>
       <c r="G18" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1726,10 +1352,10 @@
         <v>2023</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19" s="1">
         <v>52.07</v>
@@ -1741,7 +1367,7 @@
         <v>65.84</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1749,10 +1375,10 @@
         <v>2023</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20" s="1">
         <v>52186</v>
@@ -1764,7 +1390,7 @@
         <v>103103</v>
       </c>
       <c r="G20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1772,10 +1398,10 @@
         <v>2023</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D21" s="1">
         <v>12907.51</v>
@@ -1787,7 +1413,7 @@
         <v>12938.66</v>
       </c>
       <c r="G21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1795,10 +1421,10 @@
         <v>2023</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22" s="1">
         <v>47.64</v>
@@ -1810,7 +1436,7 @@
         <v>47.64</v>
       </c>
       <c r="G22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1818,10 +1444,10 @@
         <v>2023</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23" s="1">
         <v>11476</v>
@@ -1833,7 +1459,7 @@
         <v>31734</v>
       </c>
       <c r="G23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1841,10 +1467,10 @@
         <v>2023</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D24" s="1">
         <v>21331.46</v>
@@ -1856,7 +1482,7 @@
         <v>21612.720000000001</v>
       </c>
       <c r="G24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1864,10 +1490,10 @@
         <v>2023</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D25" s="1">
         <v>70.48</v>
@@ -1879,7 +1505,7 @@
         <v>68.53</v>
       </c>
       <c r="G25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1887,10 +1513,10 @@
         <v>2023</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D26" s="1">
         <v>1576</v>
@@ -1902,7 +1528,7 @@
         <v>9412</v>
       </c>
       <c r="G26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1910,10 +1536,10 @@
         <v>2023</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D27" s="1">
         <v>12629.85</v>
@@ -1925,7 +1551,7 @@
         <v>15105.66</v>
       </c>
       <c r="G27" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1933,10 +1559,10 @@
         <v>2023</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D28" s="1">
         <v>53.08</v>
@@ -1948,7 +1574,7 @@
         <v>64.650000000000006</v>
       </c>
       <c r="G28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1956,10 +1582,10 @@
         <v>2023</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D29" s="1">
         <v>9375</v>
@@ -1971,7 +1597,7 @@
         <v>16628</v>
       </c>
       <c r="G29" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1979,10 +1605,10 @@
         <v>2023</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D30" s="1">
         <v>14944.32</v>
@@ -1994,7 +1620,7 @@
         <v>15002.71</v>
       </c>
       <c r="G30" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2002,10 +1628,10 @@
         <v>2023</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D31" s="1">
         <v>46.19</v>
@@ -2017,7 +1643,7 @@
         <v>45.55</v>
       </c>
       <c r="G31" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2025,10 +1651,10 @@
         <v>2023</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D32" s="1">
         <v>1006</v>
@@ -2040,7 +1666,7 @@
         <v>2510</v>
       </c>
       <c r="G32" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2048,10 +1674,10 @@
         <v>2023</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D33" s="1">
         <v>22474.67</v>
@@ -2063,7 +1689,7 @@
         <v>20348.87</v>
       </c>
       <c r="G33" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2071,10 +1697,10 @@
         <v>2023</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D34" s="1">
         <v>70.77</v>
@@ -2086,7 +1712,7 @@
         <v>69.319999999999993</v>
       </c>
       <c r="G34" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2094,10 +1720,10 @@
         <v>2023</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D35" s="1">
         <v>173</v>
@@ -2109,7 +1735,7 @@
         <v>966</v>
       </c>
       <c r="G35" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2117,10 +1743,10 @@
         <v>2023</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D36" s="1">
         <v>12071.66</v>
@@ -2132,7 +1758,7 @@
         <v>15997.47</v>
       </c>
       <c r="G36" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2140,10 +1766,10 @@
         <v>2023</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D37" s="1">
         <v>49.98</v>
@@ -2155,7 +1781,7 @@
         <v>63.73</v>
       </c>
       <c r="G37" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2163,10 +1789,10 @@
         <v>2022</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D38" s="1">
         <v>298810</v>
@@ -2178,7 +1804,7 @@
         <v>538332</v>
       </c>
       <c r="G38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2186,10 +1812,10 @@
         <v>2022</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D39" s="1">
         <v>9641.8799999999992</v>
@@ -2201,7 +1827,7 @@
         <v>9119.01</v>
       </c>
       <c r="G39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2209,10 +1835,10 @@
         <v>2022</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D40" s="1">
         <v>48.08</v>
@@ -2224,7 +1850,7 @@
         <v>47.22</v>
       </c>
       <c r="G40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2232,10 +1858,10 @@
         <v>2022</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D41" s="1">
         <v>205221</v>
@@ -2247,7 +1873,7 @@
         <v>435882</v>
       </c>
       <c r="G41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2255,10 +1881,10 @@
         <v>2022</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D42" s="1">
         <v>10050.09</v>
@@ -2270,7 +1896,7 @@
         <v>9261.35</v>
       </c>
       <c r="G42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2278,10 +1904,10 @@
         <v>2022</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D43" s="1">
         <v>72.92</v>
@@ -2293,7 +1919,7 @@
         <v>71.84</v>
       </c>
       <c r="G43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2301,10 +1927,10 @@
         <v>2022</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D44" s="1">
         <v>26925</v>
@@ -2316,7 +1942,7 @@
         <v>291391</v>
       </c>
       <c r="G44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2324,10 +1950,10 @@
         <v>2022</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D45" s="1">
         <v>5766.65</v>
@@ -2339,7 +1965,7 @@
         <v>5936.19</v>
       </c>
       <c r="G45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2347,10 +1973,10 @@
         <v>2022</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D46" s="1">
         <v>59.84</v>
@@ -2362,7 +1988,7 @@
         <v>69.98</v>
       </c>
       <c r="G46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2370,10 +1996,10 @@
         <v>2022</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D47" s="1">
         <v>4705</v>
@@ -2385,7 +2011,7 @@
         <v>6983</v>
       </c>
       <c r="G47" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2393,10 +2019,10 @@
         <v>2022</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D48" s="1">
         <v>22794.75</v>
@@ -2408,7 +2034,7 @@
         <v>22732.05</v>
       </c>
       <c r="G48" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2416,10 +2042,10 @@
         <v>2022</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D49" s="1">
         <v>48.49</v>
@@ -2431,7 +2057,7 @@
         <v>48.17</v>
       </c>
       <c r="G49" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2439,10 +2065,10 @@
         <v>2022</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D50" s="1">
         <v>4590</v>
@@ -2454,7 +2080,7 @@
         <v>8767</v>
       </c>
       <c r="G50" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2462,10 +2088,10 @@
         <v>2022</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D51" s="1">
         <v>33072.620000000003</v>
@@ -2477,7 +2103,7 @@
         <v>32970.449999999997</v>
       </c>
       <c r="G51" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2485,10 +2111,10 @@
         <v>2022</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D52" s="1">
         <v>70.989999999999995</v>
@@ -2500,7 +2126,7 @@
         <v>69.86</v>
       </c>
       <c r="G52" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2508,10 +2134,10 @@
         <v>2022</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D53" s="1">
         <v>433</v>
@@ -2523,7 +2149,7 @@
         <v>3589</v>
       </c>
       <c r="G53" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2531,10 +2157,10 @@
         <v>2022</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C54" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D54" s="1">
         <v>21871.53</v>
@@ -2546,7 +2172,7 @@
         <v>23682.080000000002</v>
       </c>
       <c r="G54" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2554,10 +2180,10 @@
         <v>2022</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C55" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="D55" s="1">
         <v>52.8</v>
@@ -2569,7 +2195,7 @@
         <v>63.81</v>
       </c>
       <c r="G55" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2577,10 +2203,10 @@
         <v>2022</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D56" s="1">
         <v>51037</v>
@@ -2592,7 +2218,7 @@
         <v>99988</v>
       </c>
       <c r="G56" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2600,10 +2226,10 @@
         <v>2022</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="D57" s="1">
         <v>13496.1</v>
@@ -2615,7 +2241,7 @@
         <v>13605.28</v>
       </c>
       <c r="G57" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2623,10 +2249,10 @@
         <v>2022</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D58" s="1">
         <v>46.76</v>
@@ -2638,7 +2264,7 @@
         <v>46.28</v>
       </c>
       <c r="G58" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2646,10 +2272,10 @@
         <v>2022</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="D59" s="1">
         <v>12112</v>
@@ -2661,7 +2287,7 @@
         <v>32339</v>
       </c>
       <c r="G59" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2669,10 +2295,10 @@
         <v>2022</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D60" s="1">
         <v>20527.330000000002</v>
@@ -2684,7 +2310,7 @@
         <v>20258.46</v>
       </c>
       <c r="G60" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2692,10 +2318,10 @@
         <v>2022</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D61" s="1">
         <v>70.319999999999993</v>
@@ -2707,7 +2333,7 @@
         <v>67.900000000000006</v>
       </c>
       <c r="G61" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2715,10 +2341,10 @@
         <v>2022</v>
       </c>
       <c r="B62" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="D62" s="1">
         <v>1869</v>
@@ -2730,7 +2356,7 @@
         <v>9185</v>
       </c>
       <c r="G62" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2738,10 +2364,10 @@
         <v>2022</v>
       </c>
       <c r="B63" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C63" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D63" s="1">
         <v>14379.79</v>
@@ -2753,7 +2379,7 @@
         <v>15702.09</v>
       </c>
       <c r="G63" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2761,10 +2387,10 @@
         <v>2022</v>
       </c>
       <c r="B64" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="D64" s="1">
         <v>56.99</v>
@@ -2776,7 +2402,7 @@
         <v>65.569999999999993</v>
       </c>
       <c r="G64" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2784,10 +2410,10 @@
         <v>2022</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D65" s="1">
         <v>10254</v>
@@ -2799,7 +2425,7 @@
         <v>18247</v>
       </c>
       <c r="G65" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2807,10 +2433,10 @@
         <v>2022</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="D66" s="1">
         <v>14287.91</v>
@@ -2822,7 +2448,7 @@
         <v>14327.5</v>
       </c>
       <c r="G66" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2830,10 +2456,10 @@
         <v>2022</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D67" s="1">
         <v>45.5</v>
@@ -2845,7 +2471,7 @@
         <v>44.89</v>
       </c>
       <c r="G67" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2853,10 +2479,10 @@
         <v>2022</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="D68" s="1">
         <v>1023</v>
@@ -2868,7 +2494,7 @@
         <v>2525</v>
       </c>
       <c r="G68" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2876,10 +2502,10 @@
         <v>2022</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="D69" s="1">
         <v>21788.02</v>
@@ -2891,7 +2517,7 @@
         <v>19822.39</v>
       </c>
       <c r="G69" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2899,10 +2525,10 @@
         <v>2022</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D70" s="1">
         <v>70.319999999999993</v>
@@ -2914,7 +2540,7 @@
         <v>68.599999999999994</v>
       </c>
       <c r="G70" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -2922,10 +2548,10 @@
         <v>2022</v>
       </c>
       <c r="B71" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C71" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="D71" s="1">
         <v>150</v>
@@ -2937,7 +2563,7 @@
         <v>895</v>
       </c>
       <c r="G71" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2945,10 +2571,10 @@
         <v>2022</v>
       </c>
       <c r="B72" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C72" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="D72" s="1">
         <v>13928.48</v>
@@ -2960,7 +2586,7 @@
         <v>17118.91</v>
       </c>
       <c r="G72" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2968,10 +2594,10 @@
         <v>2022</v>
       </c>
       <c r="B73" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C73" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="D73" s="1">
         <v>52.55</v>
@@ -2983,7 +2609,7 @@
         <v>65.38</v>
       </c>
       <c r="G73" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2991,10 +2617,10 @@
         <v>2021</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D74" s="1">
         <v>308415</v>
@@ -3006,7 +2632,7 @@
         <v>556450</v>
       </c>
       <c r="G74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -3014,10 +2640,10 @@
         <v>2021</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D75" s="1">
         <v>9521.69</v>
@@ -3029,7 +2655,7 @@
         <v>8996.83</v>
       </c>
       <c r="G75" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -3037,10 +2663,10 @@
         <v>2021</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D76" s="1">
         <v>47.97</v>
@@ -3052,7 +2678,7 @@
         <v>47.13</v>
       </c>
       <c r="G76" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -3060,10 +2686,10 @@
         <v>2021</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D77" s="1">
         <v>202842</v>
@@ -3075,7 +2701,7 @@
         <v>427870</v>
       </c>
       <c r="G77" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -3083,22 +2709,22 @@
         <v>2021</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="G78" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -3106,10 +2732,10 @@
         <v>2021</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D79" s="1">
         <v>72.87</v>
@@ -3121,7 +2747,7 @@
         <v>71.680000000000007</v>
       </c>
       <c r="G79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -3129,10 +2755,10 @@
         <v>2021</v>
       </c>
       <c r="B80" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D80" s="1">
         <v>27038</v>
@@ -3144,7 +2770,7 @@
         <v>295557</v>
       </c>
       <c r="G80" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -3152,10 +2778,10 @@
         <v>2021</v>
       </c>
       <c r="B81" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C81" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D81" s="1">
         <v>6080.43</v>
@@ -3167,7 +2793,7 @@
         <v>6097.27</v>
       </c>
       <c r="G81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -3175,10 +2801,10 @@
         <v>2021</v>
       </c>
       <c r="B82" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D82" s="1">
         <v>63.53</v>
@@ -3190,7 +2816,7 @@
         <v>71.5</v>
       </c>
       <c r="G82" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -3198,10 +2824,10 @@
         <v>2021</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="D83" s="1">
         <v>4840</v>
@@ -3213,7 +2839,7 @@
         <v>7193</v>
       </c>
       <c r="G83" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -3221,10 +2847,10 @@
         <v>2021</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="D84" s="1">
         <v>23032.89</v>
@@ -3236,7 +2862,7 @@
         <v>22961.08</v>
       </c>
       <c r="G84" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -3244,10 +2870,10 @@
         <v>2021</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="D85" s="1">
         <v>47.86</v>
@@ -3259,7 +2885,7 @@
         <v>47.56</v>
       </c>
       <c r="G85" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -3267,10 +2893,10 @@
         <v>2021</v>
       </c>
       <c r="B86" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="D86" s="1">
         <v>4148</v>
@@ -3282,7 +2908,7 @@
         <v>8758</v>
       </c>
       <c r="G86" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -3290,10 +2916,10 @@
         <v>2021</v>
       </c>
       <c r="B87" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="D87" s="1">
         <v>33112.730000000003</v>
@@ -3305,7 +2931,7 @@
         <v>33014.11</v>
       </c>
       <c r="G87" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3313,10 +2939,10 @@
         <v>2021</v>
       </c>
       <c r="B88" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D88" s="1">
         <v>70.27</v>
@@ -3328,7 +2954,7 @@
         <v>69.03</v>
       </c>
       <c r="G88" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -3336,10 +2962,10 @@
         <v>2021</v>
       </c>
       <c r="B89" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C89" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="D89" s="1">
         <v>440</v>
@@ -3351,7 +2977,7 @@
         <v>3505</v>
       </c>
       <c r="G89" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -3359,10 +2985,10 @@
         <v>2021</v>
       </c>
       <c r="B90" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C90" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D90" s="1">
         <v>22701.8</v>
@@ -3374,7 +3000,7 @@
         <v>23008.18</v>
       </c>
       <c r="G90" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -3382,10 +3008,10 @@
         <v>2021</v>
       </c>
       <c r="B91" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C91" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D91" s="1">
         <v>61.16</v>
@@ -3397,7 +3023,7 @@
         <v>66.28</v>
       </c>
       <c r="G91" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -3405,10 +3031,10 @@
         <v>2021</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="D92" s="1">
         <v>48770</v>
@@ -3420,7 +3046,7 @@
         <v>95361</v>
       </c>
       <c r="G92" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -3428,10 +3054,10 @@
         <v>2021</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="D93" s="1">
         <v>13483.78</v>
@@ -3443,7 +3069,7 @@
         <v>13579.66</v>
       </c>
       <c r="G93" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -3451,10 +3077,10 @@
         <v>2021</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C94" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="D94" s="1">
         <v>54.68</v>
@@ -3466,7 +3092,7 @@
         <v>53.35</v>
       </c>
       <c r="G94" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -3474,10 +3100,10 @@
         <v>2021</v>
       </c>
       <c r="B95" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="D95" s="1">
         <v>10101</v>
@@ -3489,7 +3115,7 @@
         <v>27793</v>
       </c>
       <c r="G95" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -3497,10 +3123,10 @@
         <v>2021</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="D96" s="1">
         <v>20134.03</v>
@@ -3512,7 +3138,7 @@
         <v>19895.59</v>
       </c>
       <c r="G96" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -3520,10 +3146,10 @@
         <v>2021</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="D97" s="1">
         <v>70.23</v>
@@ -3535,7 +3161,7 @@
         <v>67.62</v>
       </c>
       <c r="G97" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -3543,10 +3169,10 @@
         <v>2021</v>
       </c>
       <c r="B98" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C98" t="s">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="D98" s="1">
         <v>1290</v>
@@ -3558,7 +3184,7 @@
         <v>7251</v>
       </c>
       <c r="G98" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -3566,10 +3192,10 @@
         <v>2021</v>
       </c>
       <c r="B99" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C99" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="D99" s="1">
         <v>15921.58</v>
@@ -3581,7 +3207,7 @@
         <v>16533.349999999999</v>
       </c>
       <c r="G99" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -3589,10 +3215,10 @@
         <v>2021</v>
       </c>
       <c r="B100" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C100" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D100" s="1">
         <v>60.12</v>
@@ -3604,7 +3230,7 @@
         <v>68.61</v>
       </c>
       <c r="G100" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -3612,10 +3238,10 @@
         <v>2021</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="D101" s="1">
         <v>10434</v>
@@ -3627,7 +3253,7 @@
         <v>18578</v>
       </c>
       <c r="G101" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -3635,10 +3261,10 @@
         <v>2021</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="D102" s="1">
         <v>14095.94</v>
@@ -3650,7 +3276,7 @@
         <v>14133.72</v>
       </c>
       <c r="G102" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -3658,10 +3284,10 @@
         <v>2021</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="D103" s="1">
         <v>44.49</v>
@@ -3673,7 +3299,7 @@
         <v>43.95</v>
       </c>
       <c r="G103" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -3681,10 +3307,10 @@
         <v>2021</v>
       </c>
       <c r="B104" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="D104" s="1">
         <v>1011</v>
@@ -3696,7 +3322,7 @@
         <v>2457</v>
       </c>
       <c r="G104" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -3704,10 +3330,10 @@
         <v>2021</v>
       </c>
       <c r="B105" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="D105" s="1">
         <v>21894.77</v>
@@ -3719,7 +3345,7 @@
         <v>19932.740000000002</v>
       </c>
       <c r="G105" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -3727,10 +3353,10 @@
         <v>2021</v>
       </c>
       <c r="B106" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="D106" s="1">
         <v>70.06</v>
@@ -3742,7 +3368,7 @@
         <v>68.31</v>
       </c>
       <c r="G106" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -3750,10 +3376,10 @@
         <v>2021</v>
       </c>
       <c r="B107" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C107" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="D107" s="1">
         <v>154</v>
@@ -3765,7 +3391,7 @@
         <v>920</v>
       </c>
       <c r="G107" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -3773,10 +3399,10 @@
         <v>2021</v>
       </c>
       <c r="B108" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C108" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="D108" s="1">
         <v>14439.47</v>
@@ -3788,7 +3414,7 @@
         <v>16689.97</v>
       </c>
       <c r="G108" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -3796,10 +3422,10 @@
         <v>2021</v>
       </c>
       <c r="B109" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C109" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="D109" s="1">
         <v>62.44</v>
@@ -3811,7 +3437,7 @@
         <v>67.790000000000006</v>
       </c>
       <c r="G109" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -3819,10 +3445,10 @@
         <v>2020</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C110" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="D110" s="1">
         <v>302879</v>
@@ -3834,7 +3460,7 @@
         <v>543626</v>
       </c>
       <c r="G110" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -3842,10 +3468,10 @@
         <v>2020</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="D111" s="1">
         <v>10271.76</v>
@@ -3857,7 +3483,7 @@
         <v>9752.51</v>
       </c>
       <c r="G111" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -3865,10 +3491,10 @@
         <v>2020</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D112" s="1">
         <v>48.49</v>
@@ -3880,7 +3506,7 @@
         <v>47.95</v>
       </c>
       <c r="G112" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -3888,10 +3514,10 @@
         <v>2020</v>
       </c>
       <c r="B113" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="D113" s="1">
         <v>193713</v>
@@ -3903,7 +3529,7 @@
         <v>407732</v>
       </c>
       <c r="G113" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -3911,10 +3537,10 @@
         <v>2020</v>
       </c>
       <c r="B114" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="D114" s="1">
         <v>9592.75</v>
@@ -3926,7 +3552,7 @@
         <v>8852.83</v>
       </c>
       <c r="G114" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -3934,10 +3560,10 @@
         <v>2020</v>
       </c>
       <c r="B115" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="D115" s="1">
         <v>73.63</v>
@@ -3949,7 +3575,7 @@
         <v>72.33</v>
       </c>
       <c r="G115" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -3957,10 +3583,10 @@
         <v>2020</v>
       </c>
       <c r="B116" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C116" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="D116" s="1">
         <v>26658</v>
@@ -3972,7 +3598,7 @@
         <v>282244</v>
       </c>
       <c r="G116" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -3980,10 +3606,10 @@
         <v>2020</v>
       </c>
       <c r="B117" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C117" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="D117" s="1">
         <v>5345.6</v>
@@ -3995,7 +3621,7 @@
         <v>5364.84</v>
       </c>
       <c r="G117" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -4003,10 +3629,10 @@
         <v>2020</v>
       </c>
       <c r="B118" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C118" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="D118" s="1">
         <v>56.76</v>
@@ -4018,7 +3644,7 @@
         <v>68.84</v>
       </c>
       <c r="G118" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -4026,10 +3652,10 @@
         <v>2020</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="D119" s="1">
         <v>7266</v>
@@ -4041,7 +3667,7 @@
         <v>11934</v>
       </c>
       <c r="G119" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -4049,10 +3675,10 @@
         <v>2020</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="D120" s="1">
         <v>21468.99</v>
@@ -4064,7 +3690,7 @@
         <v>20210.5</v>
       </c>
       <c r="G120" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -4072,10 +3698,10 @@
         <v>2020</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D121" s="1">
         <v>46.65</v>
@@ -4087,7 +3713,7 @@
         <v>45.58</v>
       </c>
       <c r="G121" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -4095,10 +3721,10 @@
         <v>2020</v>
       </c>
       <c r="B122" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="D122" s="1">
         <v>4530</v>
@@ -4110,7 +3736,7 @@
         <v>8570</v>
       </c>
       <c r="G122" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -4118,10 +3744,10 @@
         <v>2020</v>
       </c>
       <c r="B123" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="D123" s="1">
         <v>29554.06</v>
@@ -4133,7 +3759,7 @@
         <v>29195.4</v>
       </c>
       <c r="G123" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -4141,10 +3767,10 @@
         <v>2020</v>
       </c>
       <c r="B124" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="D124" s="1">
         <v>70.819999999999993</v>
@@ -4156,7 +3782,7 @@
         <v>69.63</v>
       </c>
       <c r="G124" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -4164,10 +3790,10 @@
         <v>2020</v>
       </c>
       <c r="B125" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C125" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="D125" s="1">
         <v>442</v>
@@ -4179,7 +3805,7 @@
         <v>3454</v>
       </c>
       <c r="G125" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -4187,10 +3813,10 @@
         <v>2020</v>
       </c>
       <c r="B126" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C126" t="s">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="D126" s="1">
         <v>15101.82</v>
@@ -4202,7 +3828,7 @@
         <v>15204.87</v>
       </c>
       <c r="G126" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -4210,10 +3836,10 @@
         <v>2020</v>
       </c>
       <c r="B127" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C127" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="D127" s="1">
         <v>50.46</v>
@@ -4225,7 +3851,7 @@
         <v>64.349999999999994</v>
       </c>
       <c r="G127" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -4233,10 +3859,10 @@
         <v>2020</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="D128" s="1">
         <v>302879</v>
@@ -4248,7 +3874,7 @@
         <v>543626</v>
       </c>
       <c r="G128" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -4256,10 +3882,10 @@
         <v>2020</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="D129" s="1">
         <v>10271.76</v>
@@ -4271,7 +3897,7 @@
         <v>9752.51</v>
       </c>
       <c r="G129" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -4279,10 +3905,10 @@
         <v>2020</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D130" s="1">
         <v>48.49</v>
@@ -4294,7 +3920,7 @@
         <v>47.95</v>
       </c>
       <c r="G130" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -4302,10 +3928,10 @@
         <v>2020</v>
       </c>
       <c r="B131" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="D131" s="1">
         <v>193713</v>
@@ -4317,7 +3943,7 @@
         <v>407732</v>
       </c>
       <c r="G131" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -4325,10 +3951,10 @@
         <v>2020</v>
       </c>
       <c r="B132" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="D132" s="1">
         <v>9592.75</v>
@@ -4340,7 +3966,7 @@
         <v>8852.83</v>
       </c>
       <c r="G132" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -4348,10 +3974,10 @@
         <v>2020</v>
       </c>
       <c r="B133" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="D133" s="1">
         <v>73.63</v>
@@ -4363,7 +3989,7 @@
         <v>72.33</v>
       </c>
       <c r="G133" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -4371,10 +3997,10 @@
         <v>2020</v>
       </c>
       <c r="B134" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C134" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="D134" s="1">
         <v>26658</v>
@@ -4386,7 +4012,7 @@
         <v>282244</v>
       </c>
       <c r="G134" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -4394,10 +4020,10 @@
         <v>2020</v>
       </c>
       <c r="B135" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C135" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="D135" s="1">
         <v>5345.6</v>
@@ -4409,7 +4035,7 @@
         <v>5364.84</v>
       </c>
       <c r="G135" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -4417,10 +4043,10 @@
         <v>2020</v>
       </c>
       <c r="B136" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C136" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="D136" s="1">
         <v>56.76</v>
@@ -4432,7 +4058,7 @@
         <v>68.84</v>
       </c>
       <c r="G136" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -4440,10 +4066,10 @@
         <v>2020</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C137" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="D137" s="1">
         <v>7266</v>
@@ -4455,7 +4081,7 @@
         <v>11934</v>
       </c>
       <c r="G137" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -4463,10 +4089,10 @@
         <v>2020</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="D138" s="1">
         <v>21468.99</v>
@@ -4478,7 +4104,7 @@
         <v>20210.5</v>
       </c>
       <c r="G138" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -4486,10 +4112,10 @@
         <v>2020</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C139" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D139" s="1">
         <v>46.65</v>
@@ -4501,7 +4127,7 @@
         <v>45.58</v>
       </c>
       <c r="G139" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -4509,10 +4135,10 @@
         <v>2020</v>
       </c>
       <c r="B140" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="D140" s="1">
         <v>4530</v>
@@ -4524,7 +4150,7 @@
         <v>8570</v>
       </c>
       <c r="G140" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -4532,10 +4158,10 @@
         <v>2020</v>
       </c>
       <c r="B141" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="D141" s="1">
         <v>29554.06</v>
@@ -4547,7 +4173,7 @@
         <v>29195.4</v>
       </c>
       <c r="G141" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -4555,10 +4181,10 @@
         <v>2020</v>
       </c>
       <c r="B142" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="D142" s="1">
         <v>70.819999999999993</v>
@@ -4570,7 +4196,7 @@
         <v>69.63</v>
       </c>
       <c r="G142" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -4578,10 +4204,10 @@
         <v>2020</v>
       </c>
       <c r="B143" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C143" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="D143" s="1">
         <v>442</v>
@@ -4593,7 +4219,7 @@
         <v>3454</v>
       </c>
       <c r="G143" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -4601,10 +4227,10 @@
         <v>2020</v>
       </c>
       <c r="B144" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C144" t="s">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="D144" s="1">
         <v>15101.82</v>
@@ -4616,7 +4242,7 @@
         <v>15204.87</v>
       </c>
       <c r="G144" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -4624,10 +4250,10 @@
         <v>2020</v>
       </c>
       <c r="B145" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C145" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="D145" s="1">
         <v>50.46</v>
@@ -4639,7 +4265,7 @@
         <v>64.349999999999994</v>
       </c>
       <c r="G145" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -4647,10 +4273,10 @@
         <v>2019</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D146" s="1">
         <v>309386</v>
@@ -4662,7 +4288,7 @@
         <v>554392</v>
       </c>
       <c r="G146" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -4670,10 +4296,10 @@
         <v>2019</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="D147" s="1">
         <v>9719.91</v>
@@ -4685,7 +4311,7 @@
         <v>9258.27</v>
       </c>
       <c r="G147" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -4693,10 +4319,10 @@
         <v>2019</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D148" s="1">
         <v>47.7</v>
@@ -4708,7 +4334,7 @@
         <v>47.2</v>
       </c>
       <c r="G148" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -4716,10 +4342,10 @@
         <v>2019</v>
       </c>
       <c r="B149" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D149" s="1">
         <v>192954</v>
@@ -4731,7 +4357,7 @@
         <v>402340</v>
       </c>
       <c r="G149" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -4739,10 +4365,10 @@
         <v>2019</v>
       </c>
       <c r="B150" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D150" s="1">
         <v>9164.76</v>
@@ -4754,7 +4380,7 @@
         <v>8477.59</v>
       </c>
       <c r="G150" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -4762,10 +4388,10 @@
         <v>2019</v>
       </c>
       <c r="B151" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D151" s="1">
         <v>73</v>
@@ -4777,7 +4403,7 @@
         <v>71.599999999999994</v>
       </c>
       <c r="G151" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -4785,10 +4411,10 @@
         <v>2019</v>
       </c>
       <c r="B152" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D152" s="1">
         <v>26655</v>
@@ -4800,7 +4426,7 @@
         <v>285238</v>
       </c>
       <c r="G152" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -4808,10 +4434,10 @@
         <v>2019</v>
       </c>
       <c r="B153" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C153" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D153" s="1">
         <v>5147.84</v>
@@ -4823,7 +4449,7 @@
         <v>5194.96</v>
       </c>
       <c r="G153" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -4831,10 +4457,10 @@
         <v>2019</v>
       </c>
       <c r="B154" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C154" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D154" s="1">
         <v>55.5</v>
@@ -4846,7 +4472,7 @@
         <v>68.2</v>
       </c>
       <c r="G154" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -4854,10 +4480,10 @@
         <v>2019</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D155" s="1">
         <v>5166</v>
@@ -4869,7 +4495,7 @@
         <v>7822</v>
       </c>
       <c r="G155" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -4877,10 +4503,10 @@
         <v>2019</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C156" t="s">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="D156" s="1">
         <v>18132.64</v>
@@ -4892,7 +4518,7 @@
         <v>18605.2</v>
       </c>
       <c r="G156" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -4900,10 +4526,10 @@
         <v>2019</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C157" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D157" s="1">
         <v>46.3</v>
@@ -4915,7 +4541,7 @@
         <v>46.2</v>
       </c>
       <c r="G157" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -4923,10 +4549,10 @@
         <v>2019</v>
       </c>
       <c r="B158" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D158" s="1">
         <v>4704</v>
@@ -4938,7 +4564,7 @@
         <v>8805</v>
       </c>
       <c r="G158" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -4946,10 +4572,10 @@
         <v>2019</v>
       </c>
       <c r="B159" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D159" s="1">
         <v>26339.37</v>
@@ -4961,7 +4587,7 @@
         <v>26823.48</v>
       </c>
       <c r="G159" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -4969,10 +4595,10 @@
         <v>2019</v>
       </c>
       <c r="B160" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D160" s="1">
         <v>69.5</v>
@@ -4984,7 +4610,7 @@
         <v>68.3</v>
       </c>
       <c r="G160" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -4992,10 +4618,10 @@
         <v>2019</v>
       </c>
       <c r="B161" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D161" s="1">
         <v>745</v>
@@ -5007,7 +4633,7 @@
         <v>5417</v>
       </c>
       <c r="G161" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -5015,10 +4641,10 @@
         <v>2019</v>
       </c>
       <c r="B162" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C162" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D162" s="1">
         <v>19442.91</v>
@@ -5030,7 +4656,7 @@
         <v>21166.639999999999</v>
       </c>
       <c r="G162" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -5038,10 +4664,10 @@
         <v>2019</v>
       </c>
       <c r="B163" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C163" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D163" s="1">
         <v>49.4</v>
@@ -5053,7 +4679,7 @@
         <v>62.4</v>
       </c>
       <c r="G163" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -5061,10 +4687,10 @@
         <v>2019</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D164" s="1">
         <v>54737</v>
@@ -5076,7 +4702,7 @@
         <v>109458</v>
       </c>
       <c r="G164" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -5084,10 +4710,10 @@
         <v>2019</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C165" t="s">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="D165" s="1">
         <v>10008.89</v>
@@ -5099,7 +4725,7 @@
         <v>9968.76</v>
       </c>
       <c r="G165" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -5107,10 +4733,10 @@
         <v>2019</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C166" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D166" s="1">
         <v>44.9</v>
@@ -5122,7 +4748,7 @@
         <v>44.6</v>
       </c>
       <c r="G166" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -5130,10 +4756,10 @@
         <v>2019</v>
       </c>
       <c r="B167" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D167" s="1">
         <v>8408</v>
@@ -5145,7 +4771,7 @@
         <v>22327</v>
       </c>
       <c r="G167" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -5153,10 +4779,10 @@
         <v>2019</v>
       </c>
       <c r="B168" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D168" s="1">
         <v>18216.05</v>
@@ -5168,7 +4794,7 @@
         <v>18065.400000000001</v>
       </c>
       <c r="G168" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -5176,10 +4802,10 @@
         <v>2019</v>
       </c>
       <c r="B169" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D169" s="1">
         <v>69.900000000000006</v>
@@ -5191,7 +4817,7 @@
         <v>67.400000000000006</v>
       </c>
       <c r="G169" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -5199,10 +4825,10 @@
         <v>2019</v>
       </c>
       <c r="B170" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D170" s="1">
         <v>1238</v>
@@ -5214,7 +4840,7 @@
         <v>9646</v>
       </c>
       <c r="G170" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -5222,10 +4848,10 @@
         <v>2019</v>
       </c>
       <c r="B171" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C171" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D171" s="1">
         <v>10956.78</v>
@@ -5237,7 +4863,7 @@
         <v>8763.66</v>
       </c>
       <c r="G171" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -5245,10 +4871,10 @@
         <v>2019</v>
       </c>
       <c r="B172" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C172" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D172" s="1">
         <v>49.6</v>
@@ -5260,7 +4886,7 @@
         <v>67.3</v>
       </c>
       <c r="G172" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -5268,10 +4894,10 @@
         <v>2019</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D173" s="1">
         <v>11279</v>
@@ -5283,7 +4909,7 @@
         <v>19670</v>
       </c>
       <c r="G173" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -5291,10 +4917,10 @@
         <v>2019</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="D174" s="1">
         <v>11754.03</v>
@@ -5306,7 +4932,7 @@
         <v>11821.33</v>
       </c>
       <c r="G174" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -5314,10 +4940,10 @@
         <v>2019</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D175" s="1">
         <v>41.8</v>
@@ -5329,7 +4955,7 @@
         <v>41.3</v>
       </c>
       <c r="G175" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -5337,10 +4963,10 @@
         <v>2019</v>
       </c>
       <c r="B176" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D176" s="1">
         <v>1257</v>
@@ -5352,7 +4978,7 @@
         <v>3063</v>
       </c>
       <c r="G176" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -5360,10 +4986,10 @@
         <v>2019</v>
       </c>
       <c r="B177" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D177" s="1">
         <v>17502.96</v>
@@ -5375,7 +5001,7 @@
         <v>14656.32</v>
       </c>
       <c r="G177" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -5383,10 +5009,10 @@
         <v>2019</v>
       </c>
       <c r="B178" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D178" s="1">
         <v>68.900000000000006</v>
@@ -5398,7 +5024,7 @@
         <v>66.5</v>
       </c>
       <c r="G178" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -5406,10 +5032,10 @@
         <v>2019</v>
       </c>
       <c r="B179" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D179" s="1">
         <v>353</v>
@@ -5421,7 +5047,7 @@
         <v>636</v>
       </c>
       <c r="G179" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -5429,10 +5055,10 @@
         <v>2019</v>
       </c>
       <c r="B180" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C180" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D180" s="1">
         <v>2147.23</v>
@@ -5444,7 +5070,7 @@
         <v>5372.55</v>
       </c>
       <c r="G180" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -5452,10 +5078,10 @@
         <v>2019</v>
       </c>
       <c r="B181" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C181" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D181" s="1">
         <v>64.099999999999994</v>
@@ -5467,7 +5093,7 @@
         <v>66.400000000000006</v>
       </c>
       <c r="G181" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -5475,10 +5101,10 @@
         <v>2018</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C182" t="s">
-        <v>109</v>
+        <v>7</v>
       </c>
       <c r="D182" s="1">
         <v>318688</v>
@@ -5490,7 +5116,7 @@
         <v>578569</v>
       </c>
       <c r="G182" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -5498,10 +5124,10 @@
         <v>2018</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C183" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="D183" s="1">
         <v>8563.4599999999991</v>
@@ -5513,7 +5139,7 @@
         <v>8132.53</v>
       </c>
       <c r="G183" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -5521,10 +5147,10 @@
         <v>2018</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="D184" s="1">
         <v>47.38</v>
@@ -5536,7 +5162,7 @@
         <v>46.74</v>
       </c>
       <c r="G184" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -5544,10 +5170,10 @@
         <v>2018</v>
       </c>
       <c r="B185" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="D185" s="1">
         <v>188446</v>
@@ -5559,7 +5185,7 @@
         <v>390196</v>
       </c>
       <c r="G185" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -5567,10 +5193,10 @@
         <v>2018</v>
       </c>
       <c r="B186" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="D186" s="1">
         <v>7973.39</v>
@@ -5582,7 +5208,7 @@
         <v>7465.13</v>
       </c>
       <c r="G186" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -5590,10 +5216,10 @@
         <v>2018</v>
       </c>
       <c r="B187" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="D187" s="1">
         <v>73.540000000000006</v>
@@ -5605,7 +5231,7 @@
         <v>72.09</v>
       </c>
       <c r="G187" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -5613,10 +5239,10 @@
         <v>2018</v>
       </c>
       <c r="B188" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C188" t="s">
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="D188" s="1">
         <v>26675</v>
@@ -5628,7 +5254,7 @@
         <v>288779</v>
       </c>
       <c r="G188" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -5636,10 +5262,10 @@
         <v>2018</v>
       </c>
       <c r="B189" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C189" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="D189" s="1">
         <v>4584.2299999999996</v>
@@ -5651,7 +5277,7 @@
         <v>4634.97</v>
       </c>
       <c r="G189" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -5659,10 +5285,10 @@
         <v>2018</v>
       </c>
       <c r="B190" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C190" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="D190" s="1">
         <v>54.26</v>
@@ -5674,7 +5300,7 @@
         <v>67.53</v>
       </c>
       <c r="G190" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -5682,10 +5308,10 @@
         <v>2018</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C191" t="s">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="D191" s="1">
         <v>5467</v>
@@ -5697,7 +5323,7 @@
         <v>8446</v>
       </c>
       <c r="G191" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -5705,10 +5331,10 @@
         <v>2018</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="D192" s="1">
         <v>15939.13</v>
@@ -5720,7 +5346,7 @@
         <v>16384.57</v>
       </c>
       <c r="G192" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -5728,10 +5354,10 @@
         <v>2018</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D193" s="1">
         <v>46.93</v>
@@ -5743,7 +5369,7 @@
         <v>46.97</v>
       </c>
       <c r="G193" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -5751,10 +5377,10 @@
         <v>2018</v>
       </c>
       <c r="B194" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="D194" s="1">
         <v>4222</v>
@@ -5766,7 +5392,7 @@
         <v>7830</v>
       </c>
       <c r="G194" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -5774,10 +5400,10 @@
         <v>2018</v>
       </c>
       <c r="B195" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D195" s="1">
         <v>24384.9</v>
@@ -5789,7 +5415,7 @@
         <v>24844.81</v>
       </c>
       <c r="G195" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -5797,10 +5423,10 @@
         <v>2018</v>
       </c>
       <c r="B196" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="D196" s="1">
         <v>70.47</v>
@@ -5812,7 +5438,7 @@
         <v>69.47</v>
       </c>
       <c r="G196" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -5820,10 +5446,10 @@
         <v>2018</v>
       </c>
       <c r="B197" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C197" t="s">
-        <v>124</v>
+        <v>7</v>
       </c>
       <c r="D197" s="1">
         <v>419</v>
@@ -5835,7 +5461,7 @@
         <v>2981</v>
       </c>
       <c r="G197" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -5843,10 +5469,10 @@
         <v>2018</v>
       </c>
       <c r="B198" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C198" t="s">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="D198" s="1">
         <v>18434.03</v>
@@ -5858,7 +5484,7 @@
         <v>20276.32</v>
       </c>
       <c r="G198" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -5866,10 +5492,10 @@
         <v>2018</v>
       </c>
       <c r="B199" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C199" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D199" s="1">
         <v>47.19</v>
@@ -5881,7 +5507,7 @@
         <v>61.07</v>
       </c>
       <c r="G199" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -5889,10 +5515,10 @@
         <v>2018</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C200" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D200" s="1">
         <v>55708</v>
@@ -5904,7 +5530,7 @@
         <v>112064</v>
       </c>
       <c r="G200" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -5912,10 +5538,10 @@
         <v>2018</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C201" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D201" s="1">
         <v>11499.44</v>
@@ -5927,7 +5553,7 @@
         <v>11502.96</v>
       </c>
       <c r="G201" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -5935,10 +5561,10 @@
         <v>2018</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C202" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="D202" s="1">
         <v>44.74</v>
@@ -5950,7 +5576,7 @@
         <v>44.52</v>
       </c>
       <c r="G202" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -5958,10 +5584,10 @@
         <v>2018</v>
       </c>
       <c r="B203" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C203" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="D203" s="1">
         <v>8728</v>
@@ -5973,7 +5599,7 @@
         <v>22583</v>
       </c>
       <c r="G203" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -5981,10 +5607,10 @@
         <v>2018</v>
       </c>
       <c r="B204" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C204" t="s">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="D204" s="1">
         <v>15048.23</v>
@@ -5996,7 +5622,7 @@
         <v>16963.07</v>
       </c>
       <c r="G204" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -6004,10 +5630,10 @@
         <v>2018</v>
       </c>
       <c r="B205" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C205" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="D205" s="1">
         <v>67.77</v>
@@ -6019,7 +5645,7 @@
         <v>66.12</v>
       </c>
       <c r="G205" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -6027,10 +5653,10 @@
         <v>2018</v>
       </c>
       <c r="B206" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C206" t="s">
-        <v>133</v>
+        <v>7</v>
       </c>
       <c r="D206" s="1">
         <v>1506</v>
@@ -6042,7 +5668,7 @@
         <v>7812</v>
       </c>
       <c r="G206" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -6050,10 +5676,10 @@
         <v>2018</v>
       </c>
       <c r="B207" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C207" t="s">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="D207" s="1">
         <v>13088.75</v>
@@ -6065,7 +5691,7 @@
         <v>13805.5</v>
       </c>
       <c r="G207" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -6073,10 +5699,10 @@
         <v>2018</v>
       </c>
       <c r="B208" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C208" t="s">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="D208" s="1">
         <v>51.45</v>
@@ -6088,7 +5714,7 @@
         <v>63.22</v>
       </c>
       <c r="G208" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -6096,10 +5722,10 @@
         <v>2018</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C209" t="s">
-        <v>136</v>
+        <v>7</v>
       </c>
       <c r="D209" s="1">
         <v>10989</v>
@@ -6111,7 +5737,7 @@
         <v>19063</v>
       </c>
       <c r="G209" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -6119,10 +5745,10 @@
         <v>2018</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C210" t="s">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="D210" s="1">
         <v>12454.74</v>
@@ -6134,7 +5760,7 @@
         <v>12236.77</v>
       </c>
       <c r="G210" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -6142,10 +5768,10 @@
         <v>2018</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C211" t="s">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="D211" s="1">
         <v>41.97</v>
@@ -6157,7 +5783,7 @@
         <v>41.48</v>
       </c>
       <c r="G211" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -6165,10 +5791,10 @@
         <v>2018</v>
       </c>
       <c r="B212" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C212" t="s">
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="D212" s="1">
         <v>823</v>
@@ -6180,7 +5806,7 @@
         <v>1975</v>
       </c>
       <c r="G212" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -6188,10 +5814,10 @@
         <v>2018</v>
       </c>
       <c r="B213" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C213" t="s">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="D213" s="1">
         <v>14859.06</v>
@@ -6203,7 +5829,7 @@
         <v>12002.9</v>
       </c>
       <c r="G213" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -6211,10 +5837,10 @@
         <v>2018</v>
       </c>
       <c r="B214" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C214" t="s">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="D214" s="1">
         <v>69.849999999999994</v>
@@ -6226,7 +5852,7 @@
         <v>67.81</v>
       </c>
       <c r="G214" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -6234,10 +5860,10 @@
         <v>2018</v>
       </c>
       <c r="B215" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C215" t="s">
-        <v>142</v>
+        <v>7</v>
       </c>
       <c r="D215" s="1">
         <v>399</v>
@@ -6249,7 +5875,7 @@
         <v>814</v>
       </c>
       <c r="G215" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -6257,10 +5883,10 @@
         <v>2018</v>
       </c>
       <c r="B216" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C216" t="s">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="D216" s="1">
         <v>13054.6</v>
@@ -6272,7 +5898,7 @@
         <v>13930.78</v>
       </c>
       <c r="G216" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -6280,10 +5906,10 @@
         <v>2018</v>
       </c>
       <c r="B217" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C217" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="D217" s="1">
         <v>58.69</v>
@@ -6295,7 +5921,7 @@
         <v>63</v>
       </c>
       <c r="G217" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -6303,10 +5929,10 @@
         <v>2017</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C218" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D218" s="1">
         <v>304115</v>
@@ -6318,7 +5944,7 @@
         <v>546992</v>
       </c>
       <c r="G218" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -6326,10 +5952,10 @@
         <v>2017</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D219" s="1">
         <v>8486.7099999999991</v>
@@ -6341,7 +5967,7 @@
         <v>8118.12</v>
       </c>
       <c r="G219" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -6349,10 +5975,10 @@
         <v>2017</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C220" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D220" s="1">
         <v>47.8</v>
@@ -6364,7 +5990,7 @@
         <v>47.27</v>
       </c>
       <c r="G220" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -6372,10 +5998,10 @@
         <v>2017</v>
       </c>
       <c r="B221" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C221" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D221" s="1">
         <v>188214</v>
@@ -6387,7 +6013,7 @@
         <v>386414</v>
       </c>
       <c r="G221" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -6395,10 +6021,10 @@
         <v>2017</v>
       </c>
       <c r="B222" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C222" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D222" s="1">
         <v>7613.08</v>
@@ -6410,7 +6036,7 @@
         <v>7138.82</v>
       </c>
       <c r="G222" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -6418,10 +6044,10 @@
         <v>2017</v>
       </c>
       <c r="B223" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C223" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D223" s="1">
         <v>73.400000000000006</v>
@@ -6433,7 +6059,7 @@
         <v>71.87</v>
       </c>
       <c r="G223" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -6441,10 +6067,10 @@
         <v>2017</v>
       </c>
       <c r="B224" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C224" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D224" s="1">
         <v>26552</v>
@@ -6456,7 +6082,7 @@
         <v>290008</v>
       </c>
       <c r="G224" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
@@ -6464,10 +6090,10 @@
         <v>2017</v>
       </c>
       <c r="B225" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C225" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D225" s="1">
         <v>4234.3599999999997</v>
@@ -6479,7 +6105,7 @@
         <v>4385.53</v>
       </c>
       <c r="G225" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -6487,10 +6113,10 @@
         <v>2017</v>
       </c>
       <c r="B226" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C226" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D226" s="1">
         <v>53.17</v>
@@ -6502,7 +6128,7 @@
         <v>67.040000000000006</v>
       </c>
       <c r="G226" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -6510,10 +6136,10 @@
         <v>2017</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C227" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D227" s="1">
         <v>5715</v>
@@ -6525,7 +6151,7 @@
         <v>8942</v>
       </c>
       <c r="G227" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -6533,10 +6159,10 @@
         <v>2017</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C228" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D228" s="1">
         <v>15495.22</v>
@@ -6548,7 +6174,7 @@
         <v>15949.01</v>
       </c>
       <c r="G228" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
@@ -6556,10 +6182,10 @@
         <v>2017</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C229" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D229" s="1">
         <v>46.9</v>
@@ -6571,7 +6197,7 @@
         <v>46.93</v>
       </c>
       <c r="G229" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
@@ -6579,10 +6205,10 @@
         <v>2017</v>
       </c>
       <c r="B230" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C230" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D230" s="1">
         <v>4061</v>
@@ -6594,7 +6220,7 @@
         <v>7477</v>
       </c>
       <c r="G230" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
@@ -6602,10 +6228,10 @@
         <v>2017</v>
       </c>
       <c r="B231" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C231" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D231" s="1">
         <v>24772.92</v>
@@ -6617,7 +6243,7 @@
         <v>25119.13</v>
       </c>
       <c r="G231" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
@@ -6625,10 +6251,10 @@
         <v>2017</v>
       </c>
       <c r="B232" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C232" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D232" s="1">
         <v>70.38</v>
@@ -6640,7 +6266,7 @@
         <v>69.31</v>
       </c>
       <c r="G232" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
@@ -6648,10 +6274,10 @@
         <v>2017</v>
       </c>
       <c r="B233" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C233" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D233" s="1">
         <v>412</v>
@@ -6663,7 +6289,7 @@
         <v>2940</v>
       </c>
       <c r="G233" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
@@ -6671,10 +6297,10 @@
         <v>2017</v>
       </c>
       <c r="B234" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C234" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D234" s="1">
         <v>16285.02</v>
@@ -6686,7 +6312,7 @@
         <v>17306.259999999998</v>
       </c>
       <c r="G234" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -6694,10 +6320,10 @@
         <v>2017</v>
       </c>
       <c r="B235" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C235" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D235" s="1">
         <v>46.06</v>
@@ -6709,7 +6335,7 @@
         <v>60.4</v>
       </c>
       <c r="G235" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
@@ -6717,10 +6343,10 @@
         <v>2017</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C236" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D236" s="1">
         <v>35862</v>
@@ -6732,7 +6358,7 @@
         <v>71616</v>
       </c>
       <c r="G236" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
@@ -6740,10 +6366,10 @@
         <v>2017</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C237" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D237" s="1">
         <v>10453.16</v>
@@ -6755,7 +6381,7 @@
         <v>10454.08</v>
       </c>
       <c r="G237" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
@@ -6763,10 +6389,10 @@
         <v>2017</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C238" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D238" s="1">
         <v>43.81</v>
@@ -6778,7 +6404,7 @@
         <v>43.72</v>
       </c>
       <c r="G238" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -6786,10 +6412,10 @@
         <v>2017</v>
       </c>
       <c r="B239" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C239" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D239" s="1">
         <v>5409</v>
@@ -6801,7 +6427,7 @@
         <v>13676</v>
       </c>
       <c r="G239" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
@@ -6809,10 +6435,10 @@
         <v>2017</v>
       </c>
       <c r="B240" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C240" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D240" s="1">
         <v>16750.919999999998</v>
@@ -6824,7 +6450,7 @@
         <v>16322.22</v>
       </c>
       <c r="G240" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
@@ -6832,10 +6458,10 @@
         <v>2017</v>
       </c>
       <c r="B241" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C241" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D241" s="1">
         <v>69.650000000000006</v>
@@ -6847,7 +6473,7 @@
         <v>67.95</v>
       </c>
       <c r="G241" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -6855,10 +6481,10 @@
         <v>2017</v>
       </c>
       <c r="B242" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C242" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D242" s="1">
         <v>1073</v>
@@ -6870,7 +6496,7 @@
         <v>4499</v>
       </c>
       <c r="G242" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
@@ -6878,10 +6504,10 @@
         <v>2017</v>
       </c>
       <c r="B243" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C243" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D243" s="1">
         <v>11404.95</v>
@@ -6893,7 +6519,7 @@
         <v>12737.12</v>
       </c>
       <c r="G243" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
@@ -6901,10 +6527,10 @@
         <v>2017</v>
       </c>
       <c r="B244" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C244" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D244" s="1">
         <v>53.58</v>
@@ -6916,7 +6542,7 @@
         <v>63.46</v>
       </c>
       <c r="G244" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
@@ -6924,10 +6550,10 @@
         <v>2017</v>
       </c>
       <c r="B245" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C245" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D245" s="1">
         <v>3310</v>
@@ -6939,7 +6565,7 @@
         <v>6018</v>
       </c>
       <c r="G245" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -6947,10 +6573,10 @@
         <v>2017</v>
       </c>
       <c r="B246" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C246" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D246" s="1">
         <v>9719.36</v>
@@ -6962,7 +6588,7 @@
         <v>9687.93</v>
       </c>
       <c r="G246" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -6970,10 +6596,10 @@
         <v>2017</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C247" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D247" s="1">
         <v>39.979999999999997</v>
@@ -6985,7 +6611,7 @@
         <v>39.47</v>
       </c>
       <c r="G247" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -6993,10 +6619,10 @@
         <v>2017</v>
       </c>
       <c r="B248" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C248" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D248" s="1">
         <v>619</v>
@@ -7008,7 +6634,7 @@
         <v>1483</v>
       </c>
       <c r="G248" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
@@ -7016,10 +6642,10 @@
         <v>2017</v>
       </c>
       <c r="B249" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C249" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D249" s="1">
         <v>14103.34</v>
@@ -7031,7 +6657,7 @@
         <v>10633.24</v>
       </c>
       <c r="G249" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
@@ -7039,10 +6665,10 @@
         <v>2017</v>
       </c>
       <c r="B250" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C250" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D250" s="1">
         <v>70.06</v>
@@ -7054,7 +6680,7 @@
         <v>68.489999999999995</v>
       </c>
       <c r="G250" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
@@ -7062,10 +6688,10 @@
         <v>2017</v>
       </c>
       <c r="B251" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C251" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D251" s="1">
         <v>492</v>
@@ -7077,7 +6703,7 @@
         <v>968</v>
       </c>
       <c r="G251" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
@@ -7085,10 +6711,10 @@
         <v>2017</v>
       </c>
       <c r="B252" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C252" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D252" s="1">
         <v>9070.52</v>
@@ -7100,7 +6726,7 @@
         <v>9696.23</v>
       </c>
       <c r="G252" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
@@ -7108,10 +6734,10 @@
         <v>2017</v>
       </c>
       <c r="B253" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C253" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D253" s="1">
         <v>60.3</v>
@@ -7123,7 +6749,7 @@
         <v>63.82</v>
       </c>
       <c r="G253" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -7131,10 +6757,10 @@
         <v>2016</v>
       </c>
       <c r="B254" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C254" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D254" s="1">
         <v>297546</v>
@@ -7146,7 +6772,7 @@
         <v>533708</v>
       </c>
       <c r="G254" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -7154,10 +6780,10 @@
         <v>2016</v>
       </c>
       <c r="B255" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C255" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D255" s="1">
         <v>7873.28</v>
@@ -7169,7 +6795,7 @@
         <v>7501.66</v>
       </c>
       <c r="G255" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
@@ -7177,10 +6803,10 @@
         <v>2016</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C256" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D256" s="1">
         <v>47.95</v>
@@ -7192,7 +6818,7 @@
         <v>47.43</v>
       </c>
       <c r="G256" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
@@ -7200,10 +6826,10 @@
         <v>2016</v>
       </c>
       <c r="B257" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C257" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D257" s="1">
         <v>159874</v>
@@ -7215,7 +6841,7 @@
         <v>333983</v>
       </c>
       <c r="G257" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
@@ -7223,10 +6849,10 @@
         <v>2016</v>
       </c>
       <c r="B258" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C258" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D258" s="1">
         <v>7215.93</v>
@@ -7238,7 +6864,7 @@
         <v>6741.79</v>
       </c>
       <c r="G258" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
@@ -7246,10 +6872,10 @@
         <v>2016</v>
       </c>
       <c r="B259" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C259" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D259" s="1">
         <v>72.41</v>
@@ -7261,7 +6887,7 @@
         <v>70.86</v>
       </c>
       <c r="G259" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
@@ -7269,10 +6895,10 @@
         <v>2016</v>
       </c>
       <c r="B260" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C260" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D260" s="1">
         <v>27076</v>
@@ -7284,7 +6910,7 @@
         <v>306955</v>
       </c>
       <c r="G260" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
@@ -7292,10 +6918,10 @@
         <v>2016</v>
       </c>
       <c r="B261" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C261" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D261" s="1">
         <v>5224.79</v>
@@ -7307,7 +6933,7 @@
         <v>5130.62</v>
       </c>
       <c r="G261" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
@@ -7315,10 +6941,10 @@
         <v>2016</v>
       </c>
       <c r="B262" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C262" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D262" s="1">
         <v>51.72</v>
@@ -7330,7 +6956,7 @@
         <v>66.239999999999995</v>
       </c>
       <c r="G262" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
@@ -7338,10 +6964,10 @@
         <v>2016</v>
       </c>
       <c r="B263" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C263" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D263" s="1">
         <v>5411</v>
@@ -7353,7 +6979,7 @@
         <v>8609</v>
       </c>
       <c r="G263" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
@@ -7361,10 +6987,10 @@
         <v>2016</v>
       </c>
       <c r="B264" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C264" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D264" s="1">
         <v>14184.97</v>
@@ -7376,7 +7002,7 @@
         <v>14573.82</v>
       </c>
       <c r="G264" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
@@ -7384,10 +7010,10 @@
         <v>2016</v>
       </c>
       <c r="B265" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C265" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D265" s="1">
         <v>46.4</v>
@@ -7399,7 +7025,7 @@
         <v>46.52</v>
       </c>
       <c r="G265" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
@@ -7407,10 +7033,10 @@
         <v>2016</v>
       </c>
       <c r="B266" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C266" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D266" s="1">
         <v>3184</v>
@@ -7422,7 +7048,7 @@
         <v>5653</v>
       </c>
       <c r="G266" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
@@ -7430,10 +7056,10 @@
         <v>2016</v>
       </c>
       <c r="B267" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C267" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D267" s="1">
         <v>23251.96</v>
@@ -7445,7 +7071,7 @@
         <v>23576.51</v>
       </c>
       <c r="G267" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
@@ -7453,10 +7079,10 @@
         <v>2016</v>
       </c>
       <c r="B268" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C268" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D268" s="1">
         <v>70.23</v>
@@ -7468,7 +7094,7 @@
         <v>69.06</v>
       </c>
       <c r="G268" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
@@ -7476,10 +7102,10 @@
         <v>2016</v>
       </c>
       <c r="B269" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C269" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D269" s="1">
         <v>377</v>
@@ -7491,7 +7117,7 @@
         <v>2740</v>
       </c>
       <c r="G269" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
@@ -7499,10 +7125,10 @@
         <v>2016</v>
       </c>
       <c r="B270" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C270" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D270" s="1">
         <v>15890.61</v>
@@ -7514,7 +7140,7 @@
         <v>16818.14</v>
       </c>
       <c r="G270" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
@@ -7522,10 +7148,10 @@
         <v>2016</v>
       </c>
       <c r="B271" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C271" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D271" s="1">
         <v>46.35</v>
@@ -7537,7 +7163,7 @@
         <v>60.32</v>
       </c>
       <c r="G271" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
@@ -7545,10 +7171,10 @@
         <v>2016</v>
       </c>
       <c r="B272" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C272" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D272" s="1">
         <v>44354</v>
@@ -7560,7 +7186,7 @@
         <v>90696</v>
       </c>
       <c r="G272" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
@@ -7568,10 +7194,10 @@
         <v>2016</v>
       </c>
       <c r="B273" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C273" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D273" s="1">
         <v>9602.57</v>
@@ -7583,7 +7209,7 @@
         <v>9629.73</v>
       </c>
       <c r="G273" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
@@ -7591,10 +7217,10 @@
         <v>2016</v>
       </c>
       <c r="B274" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C274" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D274" s="1">
         <v>43.7</v>
@@ -7606,7 +7232,7 @@
         <v>43.59</v>
       </c>
       <c r="G274" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
@@ -7614,10 +7240,10 @@
         <v>2016</v>
       </c>
       <c r="B275" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C275" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D275" s="1">
         <v>5939</v>
@@ -7629,7 +7255,7 @@
         <v>14825</v>
       </c>
       <c r="G275" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
@@ -7637,10 +7263,10 @@
         <v>2016</v>
       </c>
       <c r="B276" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C276" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D276" s="1">
         <v>15353.29</v>
@@ -7652,7 +7278,7 @@
         <v>15396.93</v>
       </c>
       <c r="G276" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
@@ -7660,10 +7286,10 @@
         <v>2016</v>
       </c>
       <c r="B277" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C277" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D277" s="1">
         <v>72.290000000000006</v>
@@ -7675,7 +7301,7 @@
         <v>69.97</v>
       </c>
       <c r="G277" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
@@ -7683,10 +7309,10 @@
         <v>2016</v>
       </c>
       <c r="B278" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C278" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D278" s="1">
         <v>1356</v>
@@ -7698,7 +7324,7 @@
         <v>7505</v>
       </c>
       <c r="G278" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
@@ -7706,10 +7332,10 @@
         <v>2016</v>
       </c>
       <c r="B279" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C279" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D279" s="1">
         <v>7775.47</v>
@@ -7721,7 +7347,7 @@
         <v>8343.01</v>
       </c>
       <c r="G279" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
@@ -7729,10 +7355,10 @@
         <v>2016</v>
       </c>
       <c r="B280" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C280" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D280" s="1">
         <v>45.55</v>
@@ -7744,7 +7370,7 @@
         <v>61.35</v>
       </c>
       <c r="G280" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
@@ -7752,10 +7378,10 @@
         <v>2016</v>
       </c>
       <c r="B281" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C281" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D281" s="1">
         <v>6253</v>
@@ -7767,7 +7393,7 @@
         <v>10770</v>
       </c>
       <c r="G281" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
@@ -7775,10 +7401,10 @@
         <v>2016</v>
       </c>
       <c r="B282" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C282" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D282" s="1">
         <v>12830.42</v>
@@ -7790,7 +7416,7 @@
         <v>12551.76</v>
       </c>
       <c r="G282" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
@@ -7798,10 +7424,10 @@
         <v>2016</v>
       </c>
       <c r="B283" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C283" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D283" s="1">
         <v>40.74</v>
@@ -7813,7 +7439,7 @@
         <v>40.47</v>
       </c>
       <c r="G283" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
@@ -7821,10 +7447,10 @@
         <v>2016</v>
       </c>
       <c r="B284" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C284" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D284" s="1">
         <v>45</v>
@@ -7836,7 +7462,7 @@
         <v>102</v>
       </c>
       <c r="G284" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
@@ -7844,10 +7470,10 @@
         <v>2016</v>
       </c>
       <c r="B285" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C285" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D285" s="1">
         <v>20472.57</v>
@@ -7859,7 +7485,7 @@
         <v>17679.04</v>
       </c>
       <c r="G285" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
@@ -7867,10 +7493,10 @@
         <v>2016</v>
       </c>
       <c r="B286" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C286" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D286" s="1">
         <v>71.94</v>
@@ -7882,7 +7508,7 @@
         <v>69.25</v>
       </c>
       <c r="G286" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
@@ -7890,10 +7516,10 @@
         <v>2016</v>
       </c>
       <c r="B287" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C287" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D287" s="1">
         <v>346</v>
@@ -7905,7 +7531,7 @@
         <v>478</v>
       </c>
       <c r="G287" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
@@ -7913,10 +7539,10 @@
         <v>2016</v>
       </c>
       <c r="B288" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C288" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D288" s="1">
         <v>17968.75</v>
@@ -7928,7 +7554,7 @@
         <v>17968.75</v>
       </c>
       <c r="G288" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
@@ -7936,10 +7562,10 @@
         <v>2016</v>
       </c>
       <c r="B289" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C289" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D289" s="1">
         <v>58.05</v>
@@ -7951,7 +7577,7 @@
         <v>61.1</v>
       </c>
       <c r="G289" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
